--- a/report/reliability/comb/Instituto de Ciências Biológicas e da Saúde - ICBS-Graduação (bacharelado).xlsx
+++ b/report/reliability/comb/Instituto de Ciências Biológicas e da Saúde - ICBS-Graduação (bacharelado).xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="50">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -80,16 +80,16 @@
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +175,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="482">
+  <fonts count="481">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -2232,11 +2232,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3142,7 +3137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="804">
+  <cellXfs count="803">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3797,6 +3792,7 @@
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3824,14 +3820,13 @@
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3840,6 +3835,7 @@
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="368" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3855,14 +3851,13 @@
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3870,6 +3865,7 @@
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="384" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3885,20 +3881,20 @@
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3914,19 +3910,19 @@
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3954,14 +3950,13 @@
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="429" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3970,6 +3965,7 @@
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3985,14 +3981,13 @@
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4000,6 +3995,7 @@
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4015,20 +4011,20 @@
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="467" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4044,21 +4040,19 @@
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="481" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4134,31 +4128,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7446538423982032</v>
+        <v>0.6634404104009335</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7562581793424911</v>
+        <v>0.7017543074897967</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.883269861867628</v>
+        <v>0.8557463985225313</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.2054401802007577</v>
+        <v>0.16393437483896828</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.102701773960812</v>
+        <v>2.352940294236737</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.05139433381510382</v>
+        <v>0.06658698139784351</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.459090909090909</v>
+        <v>1.9318181818181819</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.6531958328933526</v>
+        <v>0.5381750974039664</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.14769718516989727</v>
+        <v>0.11653634121061054</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4202,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.6983359544067638</v>
+        <v>0.6085552993559672</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7075339302353991</v>
+        <v>0.6640278981694415</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8587979616767074</v>
+        <v>0.8315429618463532</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.18027900619785403</v>
+        <v>0.15230972242978913</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.4192000487607896</v>
+        <v>1.9764376105975958</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.061110140924404664</v>
+        <v>0.07778646272175462</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.04970157675484476</v>
+        <v>0.0660816956707023</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.1252261752081918</v>
+        <v>0.09226327631418414</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4231,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7235789368803868</v>
+        <v>0.6440146994615049</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7339891399588332</v>
+        <v>0.6932590484836435</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.868453142929057</v>
+        <v>0.8452660985341626</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2005375304646092</v>
+        <v>0.17044240219705664</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.7592450167081286</v>
+        <v>2.2600798656213223</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.055988622821410775</v>
+        <v>0.07058987936881092</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.05176917499594534</v>
+        <v>0.06502004082831171</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.1375537918031415</v>
+        <v>0.11395317714291037</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4260,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.702987860557555</v>
+        <v>0.6488470636284737</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7147234395351377</v>
+        <v>0.6659638891829929</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8566503372049513</v>
+        <v>0.8227289145329867</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.18550919336301563</v>
+        <v>0.15343513421715455</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.505370361905952</v>
+        <v>1.9936883097882288</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.06034511284121236</v>
+        <v>0.07039076886277383</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04825424692863025</v>
+        <v>0.04602957235053532</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1424270248448611</v>
+        <v>0.11395317714291037</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4289,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.6972338489535942</v>
+        <v>0.6217220980155511</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7117021467559134</v>
+        <v>0.6587434021536835</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8547860629327397</v>
+        <v>0.8121520610747729</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.1832876851648552</v>
+        <v>0.14928805719141103</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.4686349161030763</v>
+        <v>1.930346274067779</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.0617454489231095</v>
+        <v>0.0742925925122685</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.048145202362677386</v>
+        <v>0.04609910264752476</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1375537918031415</v>
+        <v>0.11395317714291037</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4318,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7294517433046994</v>
+        <v>0.6268908899357942</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7443038972585911</v>
+        <v>0.6600255368882423</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8415473534189606</v>
+        <v>0.8065496757880609</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2092527557997171</v>
+        <v>0.15001451043775454</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>2.910892615408074</v>
+        <v>1.9413973945192353</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.05417115198367735</v>
+        <v>0.07313851997551121</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.045338296496058465</v>
+        <v>0.044065378760042836</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.16463856606435107</v>
+        <v>0.11395317714291037</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4347,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7333194054040366</v>
+        <v>0.6657112146184164</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7463534778174029</v>
+        <v>0.7043905550360626</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8420082376494978</v>
+        <v>0.8612112086074043</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.21104504950625258</v>
+        <v>0.17805200659460302</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>2.9424944264763524</v>
+        <v>2.3828418443192625</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.053374504046221426</v>
+        <v>0.06761178592699076</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.04447510281756915</v>
+        <v>0.06558936839684847</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.16463856606435107</v>
+        <v>0.13552901330269349</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4376,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7482721981511872</v>
+        <v>0.6609019607843137</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7633164629810326</v>
+        <v>0.6991019566108897</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8768102427194421</v>
+        <v>0.8464978870985734</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.22671630152739852</v>
+        <v>0.17438397820573637</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.225050937614904</v>
+        <v>2.3233848540079625</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.05093183224869389</v>
+        <v>0.06681624242078729</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.05052540918001109</v>
+        <v>0.06150752094524319</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.16801861104924343</v>
+        <v>0.13552901330269349</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4405,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7543474832275833</v>
+        <v>0.6696216774574365</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.761379939913614</v>
+        <v>0.7003912851392718</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8796393734583244</v>
+        <v>0.8482604436107506</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.22484785447128458</v>
+        <v>0.17526927193851927</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.1907625018532655</v>
+        <v>2.3376866239182847</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.04925560287334877</v>
+        <v>0.06436473676338407</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.05180712489068232</v>
+        <v>0.06216880889456492</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.16495463880778174</v>
+        <v>0.1252261752081918</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4434,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.761573940962239</v>
+        <v>0.6825556379151375</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7683717773944115</v>
+        <v>0.7179202137255866</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8864367042107015</v>
+        <v>0.861748721835352</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2316967390041016</v>
+        <v>0.1878979834881841</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.317263193366458</v>
+        <v>2.545096276509433</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.04856973220542289</v>
+        <v>0.06295173712061872</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.051768140910419334</v>
+        <v>0.06256359040586747</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.1667677820706953</v>
+        <v>0.1252261752081918</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4463,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7290088293933352</v>
+        <v>0.6381677738904831</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7436869713019711</v>
+        <v>0.6796275556889021</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8773623849355844</v>
+        <v>0.8450914176430679</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2087173107364079</v>
+        <v>0.161672717821138</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>2.9014793944717265</v>
+        <v>2.121367076841818</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.05488992912584988</v>
+        <v>0.0719688365847731</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.057610658369919396</v>
+        <v>0.06909765764368646</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.1424270248448611</v>
+        <v>0.11395317714291037</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4492,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7159741788695319</v>
+        <v>0.615403353497625</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7291560057826518</v>
+        <v>0.667208071394359</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8513175992956136</v>
+        <v>0.8173318389980565</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.19662068609780425</v>
+        <v>0.15416370484171335</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.6921623567459094</v>
+        <v>2.0048805696396617</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.057208748012709885</v>
+        <v>0.07619483294472504</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.05215181519989853</v>
+        <v>0.06296759856030477</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.1424270248448611</v>
+        <v>0.08641975308641976</v>
       </c>
     </row>
     <row r="22">
@@ -4527,28 +4521,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7280163702506063</v>
+        <v>0.6289127652146931</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7414275682128695</v>
+        <v>0.6773830933203239</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8609425941935402</v>
+        <v>0.8255518860875938</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.20677205007579152</v>
+        <v>0.1602830087045591</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.8673883100703024</v>
+        <v>2.099651565976027</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.05492104430117795</v>
+        <v>0.07360770938659955</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.052571303166699695</v>
+        <v>0.06319330233894847</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1424270248448611</v>
+        <v>0.11395317714291037</v>
       </c>
     </row>
     <row r="23">
@@ -4598,16 +4592,16 @@
         <v>55.0</v>
       </c>
       <c r="C27" t="n" s="85">
-        <v>0.7284471900504625</v>
+        <v>0.6367431834950257</v>
       </c>
       <c r="D27" t="n" s="86">
-        <v>0.7424648029595274</v>
+        <v>0.5935634321765098</v>
       </c>
       <c r="E27" t="n" s="87">
-        <v>0.7236015879898966</v>
+        <v>0.5478479295867362</v>
       </c>
       <c r="F27" t="n" s="88">
-        <v>0.6514497630271386</v>
+        <v>0.517715940797954</v>
       </c>
       <c r="G27" t="n" s="89">
         <v>3.4</v>
@@ -4624,16 +4618,16 @@
         <v>55.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5342539459453565</v>
+        <v>0.44084717974929066</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5643165375149044</v>
+        <v>0.4216139135634203</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5216884713624153</v>
+        <v>0.3560368852355048</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.433602852859171</v>
+        <v>0.3036979827184058</v>
       </c>
       <c r="G28" t="n" s="89">
         <v>4.036363636363636</v>
@@ -4650,22 +4644,22 @@
         <v>55.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6839103788087056</v>
+        <v>0.5177185895374199</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6964718787388182</v>
+        <v>0.5828913187568315</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.68506695501688</v>
+        <v>0.6195464430886124</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5898036563985428</v>
+        <v>0.4780389810797927</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.4727272727272727</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.1840693400389193</v>
+        <v>0.3363499860730087</v>
       </c>
     </row>
     <row r="30">
@@ -4676,22 +4670,22 @@
         <v>55.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.706796353749148</v>
+        <v>0.5741755667519952</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.7160072519457771</v>
+        <v>0.6222174364283763</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.7068753880400611</v>
+        <v>0.6703878073460288</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.6006920058609476</v>
+        <v>0.422601597057399</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.963636363636364</v>
+        <v>0.41818181818181815</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3738784835428814</v>
+        <v>1.242621319673755</v>
       </c>
     </row>
     <row r="31">
@@ -4702,22 +4696,22 @@
         <v>55.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.49678341434774276</v>
+        <v>0.558442569138882</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.48767708165106505</v>
+        <v>0.6153285878077123</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5150929817045115</v>
+        <v>0.663908120464615</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.36314152596202315</v>
+        <v>0.3908969653660617</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.41818181818181815</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.242621319673755</v>
+        <v>1.3313115985337813</v>
       </c>
     </row>
     <row r="32">
@@ -4728,22 +4722,22 @@
         <v>55.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.48049869343003415</v>
+        <v>0.21652501546810562</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.47191611057625754</v>
+        <v>0.34945316127593185</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.498366223885377</v>
+        <v>0.2414806964836158</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.3338951245367166</v>
+        <v>0.19649313440028646</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.4727272727272727</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.3313115985337813</v>
+        <v>0.13483997249264842</v>
       </c>
     </row>
     <row r="33">
@@ -4754,16 +4748,16 @@
         <v>55.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.3214974153225325</v>
+        <v>0.35773025769837735</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3341071404779707</v>
+        <v>0.38423653162273014</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.26571216425921745</v>
+        <v>0.31990774605866035</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.18488679276460765</v>
+        <v>0.1930559199695625</v>
       </c>
       <c r="G33" t="n" s="89">
         <v>3.1818181818181817</v>
@@ -4780,16 +4774,16 @@
         <v>55.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.3552855261663421</v>
+        <v>0.39165344744900127</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3505377845732091</v>
+        <v>0.37584142217740724</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.28181442343556173</v>
+        <v>0.31274884728263186</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.18118026519981573</v>
+        <v>0.18111652844466067</v>
       </c>
       <c r="G34" t="n" s="89">
         <v>3.4</v>
@@ -4806,16 +4800,16 @@
         <v>55.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.3193037722726489</v>
+        <v>0.347402271166826</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.29031045094880964</v>
+        <v>0.2560852195896163</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.19592001852959742</v>
+        <v>0.154201329906142</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.1356587991190941</v>
+        <v>0.12417043185375701</v>
       </c>
       <c r="G35" t="n" s="89">
         <v>1.4</v>
@@ -4832,16 +4826,16 @@
         <v>55.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5188889340793581</v>
+        <v>0.5202902318152661</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.49238564817908026</v>
+        <v>0.5047755325950443</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.4166753607315849</v>
+        <v>0.42275971623871295</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.36991271994166014</v>
+        <v>0.3349747761390883</v>
       </c>
       <c r="G36" t="n" s="89">
         <v>2.309090909090909</v>
@@ -4858,16 +4852,16 @@
         <v>55.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.5948828330666968</v>
+        <v>0.6043297385556461</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.5987602620811563</v>
+        <v>0.5759823913519222</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5847736466322606</v>
+        <v>0.562588208716735</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4692597122955794</v>
+        <v>0.44934544534961485</v>
       </c>
       <c r="G37" t="n" s="89">
         <v>1.8909090909090909</v>
@@ -4884,16 +4878,16 @@
         <v>55.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5046448947740064</v>
+        <v>0.5395940861665488</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.509491771407175</v>
+        <v>0.5179539384718925</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.48249427904066094</v>
+        <v>0.4939140224994652</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.37554291360806646</v>
+        <v>0.38543617770275956</v>
       </c>
       <c r="G38" t="n" s="89">
         <v>1.5636363636363637</v>
@@ -4998,22 +4992,22 @@
         <v>20</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.01818181818181818</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.09090909090909091</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.05454545454545454</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.509090909090909</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.12727272727272726</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5024,22 +5018,22 @@
         <v>21</v>
       </c>
       <c r="B46" t="n" s="109">
+        <v>0.8727272727272727</v>
+      </c>
+      <c r="C46" t="n" s="110">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="D46" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E46" t="n" s="112">
         <v>0.01818181818181818</v>
       </c>
-      <c r="C46" t="n" s="110">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="D46" t="n" s="111">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="E46" t="n" s="112">
-        <v>0.21818181818181817</v>
-      </c>
       <c r="F46" t="n" s="113">
-        <v>0.07272727272727272</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5636363636363636</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5053,19 +5047,19 @@
         <v>0.8727272727272727</v>
       </c>
       <c r="C47" t="n" s="110">
+        <v>0.0</v>
+      </c>
+      <c r="D47" t="n" s="111">
         <v>0.03636363636363636</v>
-      </c>
-      <c r="D47" t="n" s="111">
-        <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
         <v>0.01818181818181818</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.03636363636363636</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.03636363636363636</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5076,22 +5070,22 @@
         <v>23</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.8727272727272727</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C48" t="n" s="110">
+        <v>0.9818181818181818</v>
+      </c>
+      <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
-      <c r="D48" t="n" s="111">
-        <v>0.03636363636363636</v>
-      </c>
       <c r="E48" t="n" s="112">
-        <v>0.01818181818181818</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.01818181818181818</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.05454545454545454</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5329,31 +5323,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8566672507446995</v>
+        <v>0.8784982102180279</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.857624021354321</v>
+        <v>0.978474910742056</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.839157771927911</v>
+        <v>0.9890094186208982</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6009440357505259</v>
+        <v>0.9380899700667197</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.02365672575027</v>
+        <v>45.45741478776643</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.030170438236857524</v>
+        <v>0.00563154171922574</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.7181818181818183</v>
+        <v>0.3393939393939394</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9801910072911354</v>
+        <v>0.9590180786988485</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6020610034435921</v>
+        <v>0.9383978549026925</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5394,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8104244874386368</v>
+        <v>0.9920180106426526</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8096772827906255</v>
+        <v>0.9932052383884642</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7718030501714188</v>
+        <v>0.9865021911702049</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5864483832023818</v>
+        <v>0.986502191170205</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.2542335180087685</v>
+        <v>146.17219781518966</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.041329725661096176</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.022560620806283727</v>
-      </c>
+        <v>0.0019836812620664646</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5809689748925391</v>
+        <v>0.986502191170205</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8581726148523099</v>
+        <v>0.616600790513834</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8618351261077191</v>
+        <v>0.9682200715701887</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8114645353000975</v>
+        <v>0.9383978549026925</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6752448790006519</v>
+        <v>0.9383978549026926</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>6.237729618453105</v>
+        <v>30.466401889752014</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.0322793091236274</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.0034810132736833896</v>
-      </c>
+        <v>0.018957484543210286</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6632665618102438</v>
+        <v>0.9383978549026925</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8022268135904499</v>
+        <v>0.6193548387096774</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8106663007028916</v>
+        <v>0.9414460143705949</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7419924563243503</v>
+        <v>0.8893698641272614</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5880071593261017</v>
+        <v>0.8893698641272614</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.281679931847573</v>
+        <v>16.078256744623943</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.0439852598261582</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.0010374052718345973</v>
-      </c>
+        <v>0.026486901241284673</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5809689748925391</v>
+        <v>0.8893698641272613</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.7881310894596988</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.7884761647370571</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7308262798583252</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5540757214729682</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>3.7275996048242557</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.049097571712607396</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.012592455787895314</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5598994710911209</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5484,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>30</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>20</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>55.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.935262135424608</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9626647700519563</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9440025339500969</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9178272586880555</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.3363499860730087</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>55.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.841630188006904</v>
+        <v>0.9923701243964966</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8500706938948053</v>
+        <v>0.9790410620294858</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7765006983176201</v>
+        <v>0.9790775445576575</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7206584521240219</v>
+        <v>0.9766471235780351</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.4</v>
+        <v>0.41818181818181815</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.0988209168956549</v>
+        <v>1.242621319673755</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>55.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.747970344367225</v>
+        <v>0.998517971114748</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.7705118351607931</v>
+        <v>0.9957317962607014</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.6486486264775667</v>
+        <v>0.9981708780725576</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.5963486734796891</v>
+        <v>0.9948806972324166</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.036363636363636</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>0.9993263724395542</v>
+        <v>1.3313115985337813</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>37</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>20</v>
       </c>
-      <c r="B21" t="n" s="199">
-        <v>55.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8588568158736332</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8486740796668439</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.802196782622972</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.7359921574510891</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.4727272727272727</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.1840693400389193</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="B25" t="n" s="224">
+        <v>0.8727272727272727</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>55.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8964043581406088</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8790755774571651</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8399121772453586</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7763800976613169</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.963636363636364</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3738784835428814</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="B26" t="n" s="224">
+        <v>0.8727272727272727</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B27" t="n" s="224">
+        <v>0.8727272727272727</v>
+      </c>
+      <c r="C27" t="n" s="225">
         <v>0.0</v>
       </c>
-      <c r="C27" t="n" s="225">
-        <v>0.12727272727272726</v>
-      </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.3090909090909091</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4727272727272727</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.09090909090909091</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.0</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2545454545454545</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.23636363636363636</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.43636363636363634</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.2</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.509090909090909</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.12727272727272726</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.21818181818181817</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5636363636363636</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5876,31 +5783,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7428644240570847</v>
+        <v>0.5967585285905064</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7567448280186055</v>
+        <v>0.7029654476437899</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6086802171211319</v>
+        <v>0.6377400116281686</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6086802171211321</v>
+        <v>0.44098806354484177</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.1109095105960822</v>
+        <v>2.3666117024688047</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.0662095864152323</v>
+        <v>0.04946638361373717</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>3.290909090909091</v>
+        <v>2.5212121212121215</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.149439916312341</v>
+        <v>0.7850549412338637</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.608680217121132</v>
+        <v>0.38888888888888895</v>
       </c>
     </row>
     <row r="7">
@@ -5947,53 +5854,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="283">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6086802171211321</v>
+        <v>0.7428644240570847</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6086802171211321</v>
+        <v>0.7567448280186055</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.3704916067146282</v>
+        <v>0.6086802171211319</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.6086802171211321</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6086802171211321</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.1109095105960822</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.0662095864152323</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.6086802171211321</v>
+        <v>0.608680217121132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="283">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n" s="288">
+        <v>0.11430317848410776</v>
+      </c>
+      <c r="C12" t="n" s="289">
+        <v>0.49101598217665265</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.3253950846245044</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.3253950846245044</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>0.9646982321300889</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.04215081203439448</v>
+      </c>
+      <c r="H12" s="294"/>
+      <c r="I12" t="n" s="295">
+        <v>0.32539508462450445</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="283">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.3704916067146282</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.6086802171211321</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.3704916067146282</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.6086802171211321</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="B13" t="n" s="288">
+        <v>0.16851227732306207</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.56</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.38888888888888873</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>1.2727272727272725</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.049084732720239777</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.38888888888888895</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +5939,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="299">
         <v>30</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="F17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>55.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8687404128155818</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8968501037300302</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.6997041602833872</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6086802171211319</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>3.1818181818181817</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.1236664374387368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>55.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9217382474781873</v>
+        <v>0.44105923502470634</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.8968501037300303</v>
+        <v>0.7214646932552309</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.6997041602833872</v>
+        <v>0.46271259479906696</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.6086802171211319</v>
+        <v>0.3932033376334591</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.9818181818181818</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.13483997249264842</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>55.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.870243798337209</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8406866100311157</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7424310949588142</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6237652840486971</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>3.1818181818181817</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.1236664374387368</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>55.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9183398590961949</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8139649357198707</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.6923900863637279</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6154245390030944</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>3.4</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.4350119369744836</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>36</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="H24" t="s" s="338">
         <v>43</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+    <row r="25">
+      <c r="A25" t="s" s="334">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n" s="339">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.9818181818181818</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="339">
         <v>0.01818181818181818</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="340">
         <v>0.12727272727272726</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.0</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.41818181818181815</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.38181818181818183</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.05454545454545454</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+    <row r="27">
+      <c r="A27" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
+      <c r="B27" t="n" s="339">
         <v>0.01818181818181818</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.07272727272727272</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.23636363636363636</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.16363636363636364</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.18181818181818182</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.32727272727272727</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6249,31 +6243,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8833822665883733</v>
+        <v>0.7157977263818112</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.884963201355744</v>
+        <v>0.7178660951778919</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.793662776360159</v>
+        <v>0.5598994710911209</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7936627763601591</v>
+        <v>0.5598994710911209</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>7.692870557815471</v>
+        <v>2.5444162608904555</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.031179762818849953</v>
+        <v>0.076144219122566</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>1.7272727272727273</v>
+        <v>3.7181818181818183</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.1972893065177204</v>
+        <v>0.9267807501899028</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.793662776360159</v>
+        <v>0.5598994710911209</v>
       </c>
     </row>
     <row r="7">
@@ -6320,48 +6314,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.793662776360159</v>
+        <v>0.5598994710911209</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.793662776360159</v>
+        <v>0.5598994710911209</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6299006025797158</v>
+        <v>0.31348741772811695</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.793662776360159</v>
+        <v>0.5598994710911209</v>
       </c>
       <c r="F11" s="407"/>
       <c r="G11" s="408"/>
       <c r="H11" t="n" s="409">
-        <v>0.793662776360159</v>
+        <v>0.5598994710911209</v>
       </c>
       <c r="I11" t="n" s="410">
-        <v>0.793662776360159</v>
+        <v>0.5598994710911209</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6299006025797158</v>
+        <v>0.31348741772811695</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.793662776360159</v>
+        <v>0.5598994710911209</v>
       </c>
       <c r="D12" s="405"/>
       <c r="E12" s="406"/>
       <c r="F12" s="407"/>
       <c r="G12" s="408"/>
       <c r="H12" t="n" s="409">
-        <v>0.6299006025797158</v>
+        <v>0.31348741772811695</v>
       </c>
       <c r="I12" t="n" s="410">
-        <v>0.793662776360159</v>
+        <v>0.5598994710911209</v>
       </c>
     </row>
     <row r="13">
@@ -6405,54 +6399,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="424">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17" t="n" s="429">
         <v>55.0</v>
       </c>
       <c r="C17" t="n" s="430">
-        <v>0.9512851040198133</v>
+        <v>0.8946793639877423</v>
       </c>
       <c r="D17" t="n" s="431">
-        <v>0.9470118205070512</v>
+        <v>0.8831476295306241</v>
       </c>
       <c r="E17" t="n" s="432">
-        <v>0.8436715530761586</v>
+        <v>0.6608278477861075</v>
       </c>
       <c r="F17" t="n" s="433">
-        <v>0.7936627763601589</v>
+        <v>0.559899471091121</v>
       </c>
       <c r="G17" t="n" s="434">
-        <v>1.8909090909090909</v>
+        <v>3.4</v>
       </c>
       <c r="H17" t="n" s="435">
-        <v>1.3147697625894539</v>
+        <v>1.0988209168956549</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>55.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.942563990256253</v>
+        <v>0.8710558685549199</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9470118205070512</v>
+        <v>0.8831476295306241</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8436715530761586</v>
+        <v>0.6608278477861075</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7936627763601589</v>
+        <v>0.5598994710911209</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.5636363636363637</v>
+        <v>4.036363636363636</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.2135597524338357</v>
+        <v>0.9993263724395542</v>
       </c>
     </row>
     <row r="19">
@@ -6473,19 +6467,19 @@
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="453">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="453">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="453">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="453">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="453">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="453">
         <v>43</v>
@@ -6493,19 +6487,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="449">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B23" t="n" s="454">
-        <v>0.23636363636363636</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="C23" t="n" s="455">
-        <v>0.10909090909090909</v>
+        <v>0.0</v>
       </c>
       <c r="D23" t="n" s="456">
-        <v>0.2727272727272727</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="E23" t="n" s="457">
-        <v>0.2909090909090909</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="F23" t="n" s="458">
         <v>0.09090909090909091</v>
@@ -6516,22 +6510,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="449">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B24" t="n" s="454">
-        <v>0.2909090909090909</v>
+        <v>0.0</v>
       </c>
       <c r="C24" t="n" s="455">
-        <v>0.10909090909090909</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="D24" t="n" s="456">
-        <v>0.4</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="E24" t="n" s="457">
-        <v>0.14545454545454545</v>
+        <v>0.23636363636363636</v>
       </c>
       <c r="F24" t="n" s="458">
-        <v>0.05454545454545454</v>
+        <v>0.43636363636363634</v>
       </c>
       <c r="G24" t="n" s="459">
         <v>0.0</v>
@@ -6613,31 +6607,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="490">
-        <v>0.9920180106426526</v>
+        <v>0.45581627558661997</v>
       </c>
       <c r="B6" t="n" s="491">
-        <v>0.9932052383884642</v>
+        <v>0.4564472360192331</v>
       </c>
       <c r="C6" t="n" s="492">
-        <v>0.9865021911702049</v>
+        <v>0.29571210435467876</v>
       </c>
       <c r="D6" t="n" s="493">
-        <v>0.986502191170205</v>
+        <v>0.29571210435467865</v>
       </c>
       <c r="E6" t="n" s="494">
-        <v>146.17219781518966</v>
+        <v>0.8397477968401688</v>
       </c>
       <c r="F6" t="n" s="495">
-        <v>0.0019836812620664646</v>
+        <v>0.1464675867849397</v>
       </c>
       <c r="G6" t="n" s="496">
-        <v>0.44545454545454544</v>
+        <v>1.8545454545454545</v>
       </c>
       <c r="H6" t="n" s="497">
-        <v>1.2826214738253237</v>
+        <v>1.16138776850006</v>
       </c>
       <c r="I6" t="n" s="498">
-        <v>0.986502191170205</v>
+        <v>0.2957121043546787</v>
       </c>
     </row>
     <row r="7">
@@ -6684,48 +6678,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="512">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B11" t="n" s="517">
-        <v>0.9865021911702049</v>
+        <v>0.2957121043546787</v>
       </c>
       <c r="C11" t="n" s="518">
-        <v>0.9865021911702049</v>
+        <v>0.2957121043546787</v>
       </c>
       <c r="D11" t="n" s="519">
-        <v>0.9731865731836155</v>
+        <v>0.08744564866187254</v>
       </c>
       <c r="E11" t="n" s="520">
-        <v>0.9865021911702049</v>
+        <v>0.2957121043546787</v>
       </c>
       <c r="F11" s="521"/>
       <c r="G11" s="522"/>
       <c r="H11" t="n" s="523">
-        <v>0.9865021911702049</v>
+        <v>0.2957121043546787</v>
       </c>
       <c r="I11" t="n" s="524">
-        <v>0.9865021911702049</v>
+        <v>0.2957121043546787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="512">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B12" t="n" s="517">
-        <v>0.9731865731836155</v>
+        <v>0.08744564866187254</v>
       </c>
       <c r="C12" t="n" s="518">
-        <v>0.9865021911702049</v>
+        <v>0.2957121043546787</v>
       </c>
       <c r="D12" s="519"/>
       <c r="E12" s="520"/>
       <c r="F12" s="521"/>
       <c r="G12" s="522"/>
       <c r="H12" t="n" s="523">
-        <v>0.9731865731836155</v>
+        <v>0.08744564866187254</v>
       </c>
       <c r="I12" t="n" s="524">
-        <v>0.9865021911702049</v>
+        <v>0.2957121043546787</v>
       </c>
     </row>
     <row r="13">
@@ -6769,54 +6763,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="538">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B17" t="n" s="543">
         <v>55.0</v>
       </c>
       <c r="C17" t="n" s="544">
-        <v>0.9963824795224532</v>
+        <v>0.8177917328459147</v>
       </c>
       <c r="D17" t="n" s="545">
-        <v>0.9966198350349558</v>
+        <v>0.8048950566237436</v>
       </c>
       <c r="E17" t="n" s="546">
-        <v>0.9898708916706817</v>
+        <v>0.4376972429754107</v>
       </c>
       <c r="F17" t="n" s="547">
-        <v>0.9865021911702049</v>
+        <v>0.2957121043546786</v>
       </c>
       <c r="G17" t="n" s="548">
-        <v>0.41818181818181815</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n" s="549">
-        <v>1.242621319673755</v>
+        <v>1.4857346355952692</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="538">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B18" t="n" s="543">
         <v>55.0</v>
       </c>
       <c r="C18" t="n" s="544">
-        <v>0.9968491504980854</v>
+        <v>0.791606526753919</v>
       </c>
       <c r="D18" t="n" s="545">
-        <v>0.9966198350349557</v>
+        <v>0.8048950566237436</v>
       </c>
       <c r="E18" t="n" s="546">
-        <v>0.9898708916706815</v>
+        <v>0.4376972429754104</v>
       </c>
       <c r="F18" t="n" s="547">
-        <v>0.9865021911702049</v>
+        <v>0.2957121043546787</v>
       </c>
       <c r="G18" t="n" s="548">
-        <v>0.4727272727272727</v>
+        <v>2.309090909090909</v>
       </c>
       <c r="H18" t="n" s="549">
-        <v>1.3313115985337813</v>
+        <v>1.3993745596691254</v>
       </c>
     </row>
     <row r="19">
@@ -6852,61 +6846,52 @@
         <v>41</v>
       </c>
       <c r="G22" t="s" s="567">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="567">
         <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="563">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B23" t="n" s="568">
-        <v>0.8727272727272727</v>
+        <v>0.43636363636363634</v>
       </c>
       <c r="C23" t="n" s="569">
-        <v>0.03636363636363636</v>
+        <v>0.14545454545454545</v>
       </c>
       <c r="D23" t="n" s="570">
-        <v>0.0</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="E23" t="n" s="571">
-        <v>0.01818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="F23" t="n" s="572">
-        <v>0.03636363636363636</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="G23" t="n" s="573">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="H23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="563">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" t="n" s="568">
-        <v>0.8727272727272727</v>
+        <v>0.2</v>
       </c>
       <c r="C24" t="n" s="569">
-        <v>0.0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D24" t="n" s="570">
-        <v>0.03636363636363636</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="E24" t="n" s="571">
-        <v>0.01818181818181818</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="F24" t="n" s="572">
-        <v>0.01818181818181818</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="G24" t="n" s="573">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="H24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6936,7 +6921,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="576">
+      <c r="A1" t="s" s="575">
         <v>48</v>
       </c>
     </row>
@@ -6951,66 +6936,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="590">
+      <c r="A4" t="s" s="589">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="604">
+      <c r="A5" t="s" s="603">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="604">
+      <c r="B5" t="s" s="603">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="604">
+      <c r="C5" t="s" s="603">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="604">
+      <c r="D5" t="s" s="603">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="604">
+      <c r="E5" t="s" s="603">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="604">
+      <c r="F5" t="s" s="603">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="604">
+      <c r="G5" t="s" s="603">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="604">
+      <c r="H5" t="s" s="603">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="604">
+      <c r="I5" t="s" s="603">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="605">
-        <v>0.45581627558661997</v>
-      </c>
-      <c r="B6" t="n" s="606">
-        <v>0.4564472360192331</v>
-      </c>
-      <c r="C6" t="n" s="607">
-        <v>0.29571210435467876</v>
-      </c>
-      <c r="D6" t="n" s="608">
-        <v>0.29571210435467865</v>
-      </c>
-      <c r="E6" t="n" s="609">
-        <v>0.8397477968401688</v>
-      </c>
-      <c r="F6" t="n" s="610">
-        <v>0.1464675867849397</v>
-      </c>
-      <c r="G6" t="n" s="611">
-        <v>1.8545454545454545</v>
-      </c>
-      <c r="H6" t="n" s="612">
-        <v>1.16138776850006</v>
-      </c>
-      <c r="I6" t="n" s="613">
-        <v>0.2957121043546787</v>
+      <c r="A6" t="n" s="604">
+        <v>0.8833822665883733</v>
+      </c>
+      <c r="B6" t="n" s="605">
+        <v>0.884963201355744</v>
+      </c>
+      <c r="C6" t="n" s="606">
+        <v>0.793662776360159</v>
+      </c>
+      <c r="D6" t="n" s="607">
+        <v>0.7936627763601591</v>
+      </c>
+      <c r="E6" t="n" s="608">
+        <v>7.692870557815471</v>
+      </c>
+      <c r="F6" t="n" s="609">
+        <v>0.031179762818849953</v>
+      </c>
+      <c r="G6" t="n" s="610">
+        <v>1.7272727272727273</v>
+      </c>
+      <c r="H6" t="n" s="611">
+        <v>1.1972893065177204</v>
+      </c>
+      <c r="I6" t="n" s="612">
+        <v>0.793662776360159</v>
       </c>
     </row>
     <row r="7">
@@ -7024,81 +7009,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="617">
+      <c r="A9" t="s" s="616">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="631">
+      <c r="B10" t="s" s="630">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="631">
+      <c r="C10" t="s" s="630">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="631">
+      <c r="D10" t="s" s="630">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="631">
+      <c r="E10" t="s" s="630">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="631">
+      <c r="F10" t="s" s="630">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="631">
+      <c r="G10" t="s" s="630">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="631">
+      <c r="H10" t="s" s="630">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="631">
+      <c r="I10" t="s" s="630">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="627">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="632">
-        <v>0.2957121043546787</v>
-      </c>
-      <c r="C11" t="n" s="633">
-        <v>0.2957121043546787</v>
-      </c>
-      <c r="D11" t="n" s="634">
-        <v>0.08744564866187254</v>
-      </c>
-      <c r="E11" t="n" s="635">
-        <v>0.2957121043546787</v>
-      </c>
-      <c r="F11" s="636"/>
-      <c r="G11" s="637"/>
-      <c r="H11" t="n" s="638">
-        <v>0.2957121043546787</v>
-      </c>
-      <c r="I11" t="n" s="639">
-        <v>0.2957121043546787</v>
+      <c r="A11" t="s" s="626">
+        <v>28</v>
+      </c>
+      <c r="B11" t="n" s="631">
+        <v>0.793662776360159</v>
+      </c>
+      <c r="C11" t="n" s="632">
+        <v>0.793662776360159</v>
+      </c>
+      <c r="D11" t="n" s="633">
+        <v>0.6299006025797158</v>
+      </c>
+      <c r="E11" t="n" s="634">
+        <v>0.793662776360159</v>
+      </c>
+      <c r="F11" s="635"/>
+      <c r="G11" s="636"/>
+      <c r="H11" t="n" s="637">
+        <v>0.793662776360159</v>
+      </c>
+      <c r="I11" t="n" s="638">
+        <v>0.793662776360159</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="627">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="632">
-        <v>0.08744564866187254</v>
-      </c>
-      <c r="C12" t="n" s="633">
-        <v>0.2957121043546787</v>
-      </c>
-      <c r="D12" s="634"/>
-      <c r="E12" s="635"/>
-      <c r="F12" s="636"/>
-      <c r="G12" s="637"/>
-      <c r="H12" t="n" s="638">
-        <v>0.08744564866187254</v>
-      </c>
-      <c r="I12" t="n" s="639">
-        <v>0.2957121043546787</v>
+      <c r="A12" t="s" s="626">
+        <v>29</v>
+      </c>
+      <c r="B12" t="n" s="631">
+        <v>0.6299006025797158</v>
+      </c>
+      <c r="C12" t="n" s="632">
+        <v>0.793662776360159</v>
+      </c>
+      <c r="D12" s="633"/>
+      <c r="E12" s="634"/>
+      <c r="F12" s="635"/>
+      <c r="G12" s="636"/>
+      <c r="H12" t="n" s="637">
+        <v>0.6299006025797158</v>
+      </c>
+      <c r="I12" t="n" s="638">
+        <v>0.793662776360159</v>
       </c>
     </row>
     <row r="13">
@@ -7112,84 +7097,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="643">
+      <c r="A15" t="s" s="642">
         <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="657">
+      <c r="B16" t="s" s="656">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="657">
+      <c r="C16" t="s" s="656">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="657">
+      <c r="D16" t="s" s="656">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="657">
+      <c r="E16" t="s" s="656">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="657">
+      <c r="F16" t="s" s="656">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="657">
+      <c r="G16" t="s" s="656">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="657">
+      <c r="H16" t="s" s="656">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="653">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="658">
+      <c r="A17" t="s" s="652">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n" s="657">
         <v>55.0</v>
       </c>
-      <c r="C17" t="n" s="659">
-        <v>0.8177917328459147</v>
-      </c>
-      <c r="D17" t="n" s="660">
-        <v>0.8048950566237436</v>
-      </c>
-      <c r="E17" t="n" s="661">
-        <v>0.4376972429754107</v>
-      </c>
-      <c r="F17" t="n" s="662">
-        <v>0.2957121043546786</v>
-      </c>
-      <c r="G17" t="n" s="663">
-        <v>1.4</v>
-      </c>
-      <c r="H17" t="n" s="664">
-        <v>1.4857346355952692</v>
+      <c r="C17" t="n" s="658">
+        <v>0.9512851040198133</v>
+      </c>
+      <c r="D17" t="n" s="659">
+        <v>0.9470118205070512</v>
+      </c>
+      <c r="E17" t="n" s="660">
+        <v>0.8436715530761586</v>
+      </c>
+      <c r="F17" t="n" s="661">
+        <v>0.7936627763601589</v>
+      </c>
+      <c r="G17" t="n" s="662">
+        <v>1.8909090909090909</v>
+      </c>
+      <c r="H17" t="n" s="663">
+        <v>1.3147697625894539</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="653">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="658">
+      <c r="A18" t="s" s="652">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n" s="657">
         <v>55.0</v>
       </c>
-      <c r="C18" t="n" s="659">
-        <v>0.791606526753919</v>
-      </c>
-      <c r="D18" t="n" s="660">
-        <v>0.8048950566237436</v>
-      </c>
-      <c r="E18" t="n" s="661">
-        <v>0.4376972429754104</v>
-      </c>
-      <c r="F18" t="n" s="662">
-        <v>0.2957121043546787</v>
-      </c>
-      <c r="G18" t="n" s="663">
-        <v>2.309090909090909</v>
-      </c>
-      <c r="H18" t="n" s="664">
-        <v>1.3993745596691254</v>
+      <c r="C18" t="n" s="658">
+        <v>0.942563990256253</v>
+      </c>
+      <c r="D18" t="n" s="659">
+        <v>0.9470118205070512</v>
+      </c>
+      <c r="E18" t="n" s="660">
+        <v>0.8436715530761586</v>
+      </c>
+      <c r="F18" t="n" s="661">
+        <v>0.7936627763601589</v>
+      </c>
+      <c r="G18" t="n" s="662">
+        <v>1.5636363636363637</v>
+      </c>
+      <c r="H18" t="n" s="663">
+        <v>1.2135597524338357</v>
       </c>
     </row>
     <row r="19">
@@ -7203,74 +7188,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="668">
+      <c r="A21" t="s" s="667">
         <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="682">
+      <c r="B22" t="s" s="681">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="682">
+      <c r="C22" t="s" s="681">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="682">
+      <c r="D22" t="s" s="681">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="682">
+      <c r="E22" t="s" s="681">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="682">
+      <c r="F22" t="s" s="681">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="682">
+      <c r="G22" t="s" s="681">
         <v>43</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="678">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="683">
-        <v>0.43636363636363634</v>
-      </c>
-      <c r="C23" t="n" s="684">
+      <c r="A23" t="s" s="677">
+        <v>28</v>
+      </c>
+      <c r="B23" t="n" s="682">
+        <v>0.23636363636363636</v>
+      </c>
+      <c r="C23" t="n" s="683">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="D23" t="n" s="684">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E23" t="n" s="685">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="F23" t="n" s="686">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G23" t="n" s="687">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="677">
+        <v>29</v>
+      </c>
+      <c r="B24" t="n" s="682">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="C24" t="n" s="683">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="D24" t="n" s="684">
+        <v>0.4</v>
+      </c>
+      <c r="E24" t="n" s="685">
         <v>0.14545454545454545</v>
       </c>
-      <c r="D23" t="n" s="685">
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="E23" t="n" s="686">
-        <v>0.2</v>
-      </c>
-      <c r="F23" t="n" s="687">
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="G23" t="n" s="688">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="678">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="683">
-        <v>0.2</v>
-      </c>
-      <c r="C24" t="n" s="684">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D24" t="n" s="685">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="E24" t="n" s="686">
-        <v>0.4727272727272727</v>
-      </c>
-      <c r="F24" t="n" s="687">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="G24" t="n" s="688">
+      <c r="F24" t="n" s="686">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="G24" t="n" s="687">
         <v>0.0</v>
       </c>
     </row>
@@ -7300,7 +7285,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="690">
+      <c r="A1" t="s" s="689">
         <v>49</v>
       </c>
     </row>
@@ -7315,66 +7300,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="704">
+      <c r="A4" t="s" s="703">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="718">
+      <c r="A5" t="s" s="717">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="718">
+      <c r="B5" t="s" s="717">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="718">
+      <c r="C5" t="s" s="717">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="718">
+      <c r="D5" t="s" s="717">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="718">
+      <c r="E5" t="s" s="717">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="718">
+      <c r="F5" t="s" s="717">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="718">
+      <c r="G5" t="s" s="717">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="718">
+      <c r="H5" t="s" s="717">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="718">
+      <c r="I5" t="s" s="717">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="719">
-        <v>0.772365117029931</v>
-      </c>
-      <c r="B6" t="n" s="720">
-        <v>0.7821007807930916</v>
-      </c>
-      <c r="C6" t="n" s="721">
-        <v>0.8903080002741239</v>
-      </c>
-      <c r="D6" t="n" s="722">
-        <v>0.2641257089733044</v>
-      </c>
-      <c r="E6" t="n" s="723">
-        <v>3.589277573548532</v>
-      </c>
-      <c r="F6" t="n" s="724">
-        <v>0.04685764749015776</v>
-      </c>
-      <c r="G6" t="n" s="725">
-        <v>2.2927272727272725</v>
-      </c>
-      <c r="H6" t="n" s="726">
-        <v>0.7284825795356185</v>
-      </c>
-      <c r="I6" t="n" s="727">
-        <v>0.23052936052558343</v>
+      <c r="A6" t="n" s="718">
+        <v>0.700082645436407</v>
+      </c>
+      <c r="B6" t="n" s="719">
+        <v>0.7416926169211846</v>
+      </c>
+      <c r="C6" t="n" s="720">
+        <v>0.8717289135230601</v>
+      </c>
+      <c r="D6" t="n" s="721">
+        <v>0.24187266201466506</v>
+      </c>
+      <c r="E6" t="n" s="722">
+        <v>2.871356629767247</v>
+      </c>
+      <c r="F6" t="n" s="723">
+        <v>0.06136789762768998</v>
+      </c>
+      <c r="G6" t="n" s="724">
+        <v>1.7353535353535354</v>
+      </c>
+      <c r="H6" t="n" s="725">
+        <v>0.6519258196988292</v>
+      </c>
+      <c r="I6" t="n" s="726">
+        <v>0.17312531864725766</v>
       </c>
     </row>
     <row r="7">
@@ -7388,325 +7373,301 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="731">
+      <c r="A9" t="s" s="730">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="745">
+      <c r="B10" t="s" s="744">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="745">
+      <c r="C10" t="s" s="744">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="745">
+      <c r="D10" t="s" s="744">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="745">
+      <c r="E10" t="s" s="744">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="745">
+      <c r="F10" t="s" s="744">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="745">
+      <c r="G10" t="s" s="744">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="745">
+      <c r="H10" t="s" s="744">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="745">
+      <c r="I10" t="s" s="744">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="741">
+      <c r="A11" t="s" s="740">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n" s="745">
+        <v>0.684041157047575</v>
+      </c>
+      <c r="C11" t="n" s="746">
+        <v>0.6933775040245614</v>
+      </c>
+      <c r="D11" t="n" s="747">
+        <v>0.8294189068987146</v>
+      </c>
+      <c r="E11" t="n" s="748">
+        <v>0.22037467459846555</v>
+      </c>
+      <c r="F11" t="n" s="749">
+        <v>2.2613393117773835</v>
+      </c>
+      <c r="G11" t="n" s="750">
+        <v>0.06643202670060146</v>
+      </c>
+      <c r="H11" t="n" s="751">
+        <v>0.054738328363041405</v>
+      </c>
+      <c r="I11" t="n" s="752">
+        <v>0.17312531864725766</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="740">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n" s="745">
+        <v>0.6527279208177461</v>
+      </c>
+      <c r="C12" t="n" s="746">
+        <v>0.6919622249991157</v>
+      </c>
+      <c r="D12" t="n" s="747">
+        <v>0.8217185560006123</v>
+      </c>
+      <c r="E12" t="n" s="748">
+        <v>0.21923455446790038</v>
+      </c>
+      <c r="F12" t="n" s="749">
+        <v>2.246355093939792</v>
+      </c>
+      <c r="G12" t="n" s="750">
+        <v>0.07024461751798974</v>
+      </c>
+      <c r="H12" t="n" s="751">
+        <v>0.05200982653910363</v>
+      </c>
+      <c r="I12" t="n" s="752">
+        <v>0.17312531864725766</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="740">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n" s="745">
+        <v>0.6536897642818644</v>
+      </c>
+      <c r="C13" t="n" s="746">
+        <v>0.6897863622709274</v>
+      </c>
+      <c r="D13" t="n" s="747">
+        <v>0.8112369569886256</v>
+      </c>
+      <c r="E13" t="n" s="748">
+        <v>0.21749561684014918</v>
+      </c>
+      <c r="F13" t="n" s="749">
+        <v>2.2235849052947114</v>
+      </c>
+      <c r="G13" t="n" s="750">
+        <v>0.06985177130630695</v>
+      </c>
+      <c r="H13" t="n" s="751">
+        <v>0.04943644230872097</v>
+      </c>
+      <c r="I13" t="n" s="752">
+        <v>0.17312531864725766</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="740">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="746">
-        <v>0.7277740721330221</v>
-      </c>
-      <c r="C11" t="n" s="747">
-        <v>0.734637389833311</v>
-      </c>
-      <c r="D11" t="n" s="748">
-        <v>0.864935215748085</v>
-      </c>
-      <c r="E11" t="n" s="749">
-        <v>0.23524198101337523</v>
-      </c>
-      <c r="F11" t="n" s="750">
-        <v>2.7684284133768666</v>
-      </c>
-      <c r="G11" t="n" s="751">
-        <v>0.05639652391079745</v>
-      </c>
-      <c r="H11" t="n" s="752">
-        <v>0.05382510242477878</v>
-      </c>
-      <c r="I11" t="n" s="753">
-        <v>0.16648662492851257</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="741">
+      <c r="B14" t="n" s="745">
+        <v>0.6481265071087873</v>
+      </c>
+      <c r="C14" t="n" s="746">
+        <v>0.7039951400683062</v>
+      </c>
+      <c r="D14" t="n" s="747">
+        <v>0.8475157248160001</v>
+      </c>
+      <c r="E14" t="n" s="748">
+        <v>0.22916254689714627</v>
+      </c>
+      <c r="F14" t="n" s="749">
+        <v>2.3783229107480213</v>
+      </c>
+      <c r="G14" t="n" s="750">
+        <v>0.07220018763674022</v>
+      </c>
+      <c r="H14" t="n" s="751">
+        <v>0.09038518516763955</v>
+      </c>
+      <c r="I14" t="n" s="752">
+        <v>0.15528667777393806</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="740">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="746">
-        <v>0.7586563046210293</v>
-      </c>
-      <c r="C12" t="n" s="747">
-        <v>0.7686815049173894</v>
-      </c>
-      <c r="D12" t="n" s="748">
-        <v>0.8788021719553596</v>
-      </c>
-      <c r="E12" t="n" s="749">
-        <v>0.26966096186614397</v>
-      </c>
-      <c r="F12" t="n" s="750">
-        <v>3.323043860556289</v>
-      </c>
-      <c r="G12" t="n" s="751">
-        <v>0.05038137902024597</v>
-      </c>
-      <c r="H12" t="n" s="752">
-        <v>0.05219610849043948</v>
-      </c>
-      <c r="I12" t="n" s="753">
-        <v>0.23142154260076497</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="741">
-        <v>20</v>
-      </c>
-      <c r="B13" t="n" s="746">
-        <v>0.7315503227348792</v>
-      </c>
-      <c r="C13" t="n" s="747">
-        <v>0.7411530001817686</v>
-      </c>
-      <c r="D13" t="n" s="748">
-        <v>0.8621704639549979</v>
-      </c>
-      <c r="E13" t="n" s="749">
-        <v>0.24135690800394993</v>
-      </c>
-      <c r="F13" t="n" s="750">
-        <v>2.863286036547551</v>
-      </c>
-      <c r="G13" t="n" s="751">
-        <v>0.05578197120715373</v>
-      </c>
-      <c r="H13" t="n" s="752">
-        <v>0.05106897698808808</v>
-      </c>
-      <c r="I13" t="n" s="753">
-        <v>0.21899495212762266</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="741">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="746">
-        <v>0.728179846429996</v>
-      </c>
-      <c r="C14" t="n" s="747">
-        <v>0.7393733892124411</v>
-      </c>
-      <c r="D14" t="n" s="748">
-        <v>0.8602789760859303</v>
-      </c>
-      <c r="E14" t="n" s="749">
-        <v>0.2396662239226796</v>
-      </c>
-      <c r="F14" t="n" s="750">
-        <v>2.8369067417107168</v>
-      </c>
-      <c r="G14" t="n" s="751">
-        <v>0.05666410582142022</v>
-      </c>
-      <c r="H14" t="n" s="752">
-        <v>0.05078475534090171</v>
-      </c>
-      <c r="I14" t="n" s="753">
-        <v>0.19571774925390822</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="741">
+      <c r="B15" t="n" s="745">
+        <v>0.6953345404677699</v>
+      </c>
+      <c r="C15" t="n" s="746">
+        <v>0.7494028194541623</v>
+      </c>
+      <c r="D15" t="n" s="747">
+        <v>0.8663052854487533</v>
+      </c>
+      <c r="E15" t="n" s="748">
+        <v>0.2720965033764778</v>
+      </c>
+      <c r="F15" t="n" s="749">
+        <v>2.990467880851061</v>
+      </c>
+      <c r="G15" t="n" s="750">
+        <v>0.06319613528717058</v>
+      </c>
+      <c r="H15" t="n" s="751">
+        <v>0.07886672377036158</v>
+      </c>
+      <c r="I15" t="n" s="752">
+        <v>0.19704391196497145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="740">
+        <v>26</v>
+      </c>
+      <c r="B16" t="n" s="745">
+        <v>0.7172591392996522</v>
+      </c>
+      <c r="C16" t="n" s="746">
+        <v>0.7555620291230825</v>
+      </c>
+      <c r="D16" t="n" s="747">
+        <v>0.8856142773064559</v>
+      </c>
+      <c r="E16" t="n" s="748">
+        <v>0.2786955706494792</v>
+      </c>
+      <c r="F16" t="n" s="749">
+        <v>3.091017432408373</v>
+      </c>
+      <c r="G16" t="n" s="750">
+        <v>0.05796556522314874</v>
+      </c>
+      <c r="H16" t="n" s="751">
+        <v>0.08378304253699882</v>
+      </c>
+      <c r="I16" t="n" s="752">
+        <v>0.19704391196497145</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="740">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="745">
+        <v>0.6865544991062299</v>
+      </c>
+      <c r="C17" t="n" s="746">
+        <v>0.7338789968817192</v>
+      </c>
+      <c r="D17" t="n" s="747">
+        <v>0.8765086814671051</v>
+      </c>
+      <c r="E17" t="n" s="748">
+        <v>0.25634586524750036</v>
+      </c>
+      <c r="F17" t="n" s="749">
+        <v>2.7576891274362807</v>
+      </c>
+      <c r="G17" t="n" s="750">
+        <v>0.06505128336700369</v>
+      </c>
+      <c r="H17" t="n" s="751">
+        <v>0.08982052104753957</v>
+      </c>
+      <c r="I17" t="n" s="752">
+        <v>0.16479660243606642</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="740">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="746">
-        <v>0.7488665222878332</v>
-      </c>
-      <c r="C15" t="n" s="747">
-        <v>0.7593962651218877</v>
-      </c>
-      <c r="D15" t="n" s="748">
-        <v>0.8558841489934255</v>
-      </c>
-      <c r="E15" t="n" s="749">
-        <v>0.25963775553847274</v>
-      </c>
-      <c r="F15" t="n" s="750">
-        <v>3.1562114590889068</v>
-      </c>
-      <c r="G15" t="n" s="751">
-        <v>0.0516269544573498</v>
-      </c>
-      <c r="H15" t="n" s="752">
-        <v>0.054583032014333496</v>
-      </c>
-      <c r="I15" t="n" s="753">
-        <v>0.22918988237987292</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="741">
+      <c r="B18" t="n" s="745">
+        <v>0.6586431915547442</v>
+      </c>
+      <c r="C18" t="n" s="746">
+        <v>0.7142600952015243</v>
+      </c>
+      <c r="D18" t="n" s="747">
+        <v>0.8291880982975571</v>
+      </c>
+      <c r="E18" t="n" s="748">
+        <v>0.23807246693716935</v>
+      </c>
+      <c r="F18" t="n" s="749">
+        <v>2.4996861943566198</v>
+      </c>
+      <c r="G18" t="n" s="750">
+        <v>0.0694866097986586</v>
+      </c>
+      <c r="H18" t="n" s="751">
+        <v>0.08074254601656435</v>
+      </c>
+      <c r="I18" t="n" s="752">
+        <v>0.18262216119779678</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="740">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="746">
-        <v>0.7592556754745068</v>
-      </c>
-      <c r="C16" t="n" s="747">
-        <v>0.7710409425239497</v>
-      </c>
-      <c r="D16" t="n" s="748">
-        <v>0.865639375122348</v>
-      </c>
-      <c r="E16" t="n" s="749">
-        <v>0.27229171221876425</v>
-      </c>
-      <c r="F16" t="n" s="750">
-        <v>3.3675931016819574</v>
-      </c>
-      <c r="G16" t="n" s="751">
-        <v>0.04975822529105608</v>
-      </c>
-      <c r="H16" t="n" s="752">
-        <v>0.05434932271822247</v>
-      </c>
-      <c r="I16" t="n" s="753">
-        <v>0.2505895849137283</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="741">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="746">
-        <v>0.7581804269875324</v>
-      </c>
-      <c r="C17" t="n" s="747">
-        <v>0.7717020605254268</v>
-      </c>
-      <c r="D17" t="n" s="748">
-        <v>0.8430475984522777</v>
-      </c>
-      <c r="E17" t="n" s="749">
-        <v>0.27303515471711587</v>
-      </c>
-      <c r="F17" t="n" s="750">
-        <v>3.3802410232063234</v>
-      </c>
-      <c r="G17" t="n" s="751">
-        <v>0.049347597701043404</v>
-      </c>
-      <c r="H17" t="n" s="752">
-        <v>0.04426721193810281</v>
-      </c>
-      <c r="I17" t="n" s="753">
-        <v>0.24725766211316724</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="741">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="746">
-        <v>0.7602742839824215</v>
-      </c>
-      <c r="C18" t="n" s="747">
-        <v>0.7718840024913189</v>
-      </c>
-      <c r="D18" t="n" s="748">
-        <v>0.8434299293173327</v>
-      </c>
-      <c r="E18" t="n" s="749">
-        <v>0.2732402411449593</v>
-      </c>
-      <c r="F18" t="n" s="750">
-        <v>3.38373463904891</v>
-      </c>
-      <c r="G18" t="n" s="751">
-        <v>0.048794711151104744</v>
-      </c>
-      <c r="H18" t="n" s="752">
-        <v>0.044200362323107645</v>
-      </c>
-      <c r="I18" t="n" s="753">
-        <v>0.24953290242346687</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="741">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="746">
-        <v>0.7900042338217776</v>
-      </c>
-      <c r="C19" t="n" s="747">
-        <v>0.7940995841675504</v>
-      </c>
-      <c r="D19" t="n" s="748">
-        <v>0.899951678232467</v>
-      </c>
-      <c r="E19" t="n" s="749">
-        <v>0.2999768004861169</v>
-      </c>
-      <c r="F19" t="n" s="750">
-        <v>3.8567167577444117</v>
-      </c>
-      <c r="G19" t="n" s="751">
-        <v>0.04378889014062445</v>
-      </c>
-      <c r="H19" t="n" s="752">
-        <v>0.05563288700495677</v>
-      </c>
-      <c r="I19" t="n" s="753">
-        <v>0.24953290242346687</v>
+      <c r="B19" t="n" s="745">
+        <v>0.6681130989928117</v>
+      </c>
+      <c r="C19" t="n" s="746">
+        <v>0.7223231358774184</v>
+      </c>
+      <c r="D19" t="n" s="747">
+        <v>0.8367168145433923</v>
+      </c>
+      <c r="E19" t="n" s="748">
+        <v>0.2453761591176975</v>
+      </c>
+      <c r="F19" t="n" s="749">
+        <v>2.6013083162684594</v>
+      </c>
+      <c r="G19" t="n" s="750">
+        <v>0.06797475050280768</v>
+      </c>
+      <c r="H19" t="n" s="751">
+        <v>0.08077291744617224</v>
+      </c>
+      <c r="I19" t="n" s="752">
+        <v>0.18754706941443233</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="741">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="746">
-        <v>0.7633738983515228</v>
-      </c>
-      <c r="C20" t="n" s="747">
-        <v>0.7753164813949173</v>
-      </c>
-      <c r="D20" t="n" s="748">
-        <v>0.8897713203674036</v>
-      </c>
-      <c r="E20" t="n" s="749">
-        <v>0.2771493508214659</v>
-      </c>
-      <c r="F20" t="n" s="750">
-        <v>3.4507047344120525</v>
-      </c>
-      <c r="G20" t="n" s="751">
-        <v>0.04932243850691241</v>
-      </c>
-      <c r="H20" t="n" s="752">
-        <v>0.06086800977269091</v>
-      </c>
-      <c r="I20" t="n" s="753">
-        <v>0.21899495212762266</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -7715,595 +7676,538 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="756">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23"/>
+      <c r="B23" t="s" s="770">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s" s="770">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s" s="770">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s" s="770">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s" s="770">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s" s="770">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s" s="770">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="766">
+        <v>20</v>
+      </c>
+      <c r="B24" t="n" s="771">
+        <v>55.0</v>
+      </c>
+      <c r="C24" t="n" s="772">
+        <v>0.6162531995426549</v>
+      </c>
+      <c r="D24" t="n" s="773">
+        <v>0.6881797991231168</v>
+      </c>
+      <c r="E24" t="n" s="774">
+        <v>0.7247841824704491</v>
+      </c>
+      <c r="F24" t="n" s="775">
+        <v>0.5787623107324305</v>
+      </c>
+      <c r="G24" t="n" s="776">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="H24" t="n" s="777">
+        <v>0.3363499860730087</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="766">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="771">
+        <v>55.0</v>
+      </c>
+      <c r="C25" t="n" s="772">
+        <v>0.6344356387306136</v>
+      </c>
+      <c r="D25" t="n" s="773">
+        <v>0.6943911308130047</v>
+      </c>
+      <c r="E25" t="n" s="774">
+        <v>0.7408116150890378</v>
+      </c>
+      <c r="F25" t="n" s="775">
+        <v>0.4797495484950402</v>
+      </c>
+      <c r="G25" t="n" s="776">
+        <v>0.41818181818181815</v>
+      </c>
+      <c r="H25" t="n" s="777">
+        <v>1.242621319673755</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="766">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="771">
+        <v>55.0</v>
+      </c>
+      <c r="C26" t="n" s="772">
+        <v>0.6375594406444488</v>
+      </c>
+      <c r="D26" t="n" s="773">
+        <v>0.7038647977577639</v>
+      </c>
+      <c r="E26" t="n" s="774">
+        <v>0.7522559548654726</v>
+      </c>
+      <c r="F26" t="n" s="775">
+        <v>0.47038886524600465</v>
+      </c>
+      <c r="G26" t="n" s="776">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="H26" t="n" s="777">
+        <v>1.3313115985337813</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="766">
+        <v>18</v>
+      </c>
+      <c r="B27" t="n" s="771">
+        <v>55.0</v>
+      </c>
+      <c r="C27" t="n" s="772">
+        <v>0.6503019459265739</v>
+      </c>
+      <c r="D27" t="n" s="773">
+        <v>0.6403038005926576</v>
+      </c>
+      <c r="E27" t="n" s="774">
+        <v>0.5759270883328144</v>
+      </c>
+      <c r="F27" t="n" s="775">
+        <v>0.5204494417259066</v>
+      </c>
+      <c r="G27" t="n" s="776">
+        <v>3.4</v>
+      </c>
+      <c r="H27" t="n" s="777">
+        <v>1.0988209168956549</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="766">
+        <v>19</v>
+      </c>
+      <c r="B28" t="n" s="771">
+        <v>55.0</v>
+      </c>
+      <c r="C28" t="n" s="772">
+        <v>0.40667870621459473</v>
+      </c>
+      <c r="D28" t="n" s="773">
+        <v>0.40640121673059487</v>
+      </c>
+      <c r="E28" t="n" s="774">
+        <v>0.3174291410469432</v>
+      </c>
+      <c r="F28" t="n" s="775">
+        <v>0.25047210034265777</v>
+      </c>
+      <c r="G28" t="n" s="776">
+        <v>4.036363636363636</v>
+      </c>
+      <c r="H28" t="n" s="777">
+        <v>0.9993263724395542</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="766">
+        <v>26</v>
+      </c>
+      <c r="B29" t="n" s="771">
+        <v>55.0</v>
+      </c>
+      <c r="C29" t="n" s="772">
+        <v>0.43846405317312837</v>
+      </c>
+      <c r="D29" t="n" s="773">
+        <v>0.3704497458481556</v>
+      </c>
+      <c r="E29" t="n" s="774">
+        <v>0.2359958460006792</v>
+      </c>
+      <c r="F29" t="n" s="775">
+        <v>0.20186834133484233</v>
+      </c>
+      <c r="G29" t="n" s="776">
+        <v>1.4</v>
+      </c>
+      <c r="H29" t="n" s="777">
+        <v>1.4857346355952692</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="766">
+        <v>27</v>
+      </c>
+      <c r="B30" t="n" s="771">
+        <v>55.0</v>
+      </c>
+      <c r="C30" t="n" s="772">
+        <v>0.5311359784988636</v>
+      </c>
+      <c r="D30" t="n" s="773">
+        <v>0.4922101022363526</v>
+      </c>
+      <c r="E30" t="n" s="774">
+        <v>0.36864105364658806</v>
+      </c>
+      <c r="F30" t="n" s="775">
+        <v>0.3264547554448092</v>
+      </c>
+      <c r="G30" t="n" s="776">
+        <v>2.309090909090909</v>
+      </c>
+      <c r="H30" t="n" s="777">
+        <v>1.3993745596691254</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="766">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n" s="771">
+        <v>55.0</v>
+      </c>
+      <c r="C31" t="n" s="772">
+        <v>0.618650802227761</v>
+      </c>
+      <c r="D31" t="n" s="773">
+        <v>0.5917628905470382</v>
+      </c>
+      <c r="E31" t="n" s="774">
+        <v>0.5655916555738569</v>
+      </c>
+      <c r="F31" t="n" s="775">
+        <v>0.448791380584726</v>
+      </c>
+      <c r="G31" t="n" s="776">
+        <v>1.8909090909090909</v>
+      </c>
+      <c r="H31" t="n" s="777">
+        <v>1.3147697625894539</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="766">
+        <v>29</v>
+      </c>
+      <c r="B32" t="n" s="771">
+        <v>55.0</v>
+      </c>
+      <c r="C32" t="n" s="772">
+        <v>0.5717470282780784</v>
+      </c>
+      <c r="D32" t="n" s="773">
+        <v>0.5519726496084683</v>
+      </c>
+      <c r="E32" t="n" s="774">
+        <v>0.5171645620731128</v>
+      </c>
+      <c r="F32" t="n" s="775">
+        <v>0.40639715184149805</v>
+      </c>
+      <c r="G32" t="n" s="776">
+        <v>1.5636363636363637</v>
+      </c>
+      <c r="H32" t="n" s="777">
+        <v>1.2135597524338357</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s" s="757">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24"/>
-      <c r="B24" t="s" s="771">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="771">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s" s="771">
-        <v>33</v>
-      </c>
-      <c r="E24" t="s" s="771">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s" s="771">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s" s="771">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s" s="771">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="767">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="781">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36"/>
+      <c r="B36" t="s" s="795">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s" s="795">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s" s="795">
+        <v>39</v>
+      </c>
+      <c r="E36" t="s" s="795">
+        <v>40</v>
+      </c>
+      <c r="F36" t="s" s="795">
+        <v>41</v>
+      </c>
+      <c r="G36" t="s" s="795">
+        <v>42</v>
+      </c>
+      <c r="H36" t="s" s="795">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="791">
+        <v>20</v>
+      </c>
+      <c r="B37" t="n" s="796">
+        <v>0.8727272727272727</v>
+      </c>
+      <c r="C37" t="n" s="797">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="D37" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E37" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="791">
+        <v>21</v>
+      </c>
+      <c r="B38" t="n" s="796">
+        <v>0.8727272727272727</v>
+      </c>
+      <c r="C38" t="n" s="797">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="D38" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E38" t="n" s="799">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="F38" t="n" s="800">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="G38" t="n" s="801">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="H38" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="791">
+        <v>22</v>
+      </c>
+      <c r="B39" t="n" s="796">
+        <v>0.8727272727272727</v>
+      </c>
+      <c r="C39" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D39" t="n" s="798">
+        <v>0.03636363636363636</v>
+      </c>
+      <c r="E39" t="n" s="799">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="F39" t="n" s="800">
+        <v>0.01818181818181818</v>
+      </c>
+      <c r="G39" t="n" s="801">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="H39" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="791">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="772">
-        <v>55.0</v>
-      </c>
-      <c r="C25" t="n" s="773">
-        <v>0.7416921277055337</v>
-      </c>
-      <c r="D25" t="n" s="774">
-        <v>0.7600603389531768</v>
-      </c>
-      <c r="E25" t="n" s="775">
-        <v>0.7334625623296517</v>
-      </c>
-      <c r="F25" t="n" s="776">
-        <v>0.6610083427266505</v>
-      </c>
-      <c r="G25" t="n" s="777">
-        <v>3.4</v>
-      </c>
-      <c r="H25" t="n" s="778">
-        <v>1.0988209168956549</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="767">
+      <c r="B40" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C40" t="n" s="797">
+        <v>0.12727272727272726</v>
+      </c>
+      <c r="D40" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="799">
+        <v>0.3090909090909091</v>
+      </c>
+      <c r="F40" t="n" s="800">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="G40" t="n" s="801">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="H40" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="791">
         <v>19</v>
       </c>
-      <c r="B26" t="n" s="772">
-        <v>55.0</v>
-      </c>
-      <c r="C26" t="n" s="773">
-        <v>0.5116699873127508</v>
-      </c>
-      <c r="D26" t="n" s="774">
-        <v>0.5468410310618053</v>
-      </c>
-      <c r="E26" t="n" s="775">
-        <v>0.49133484717901754</v>
-      </c>
-      <c r="F26" t="n" s="776">
-        <v>0.39956350332396884</v>
-      </c>
-      <c r="G26" t="n" s="777">
-        <v>4.036363636363636</v>
-      </c>
-      <c r="H26" t="n" s="778">
-        <v>0.9993263724395542</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="767">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="772">
-        <v>55.0</v>
-      </c>
-      <c r="C27" t="n" s="773">
-        <v>0.7082397229829314</v>
-      </c>
-      <c r="D27" t="n" s="774">
-        <v>0.722179481692648</v>
-      </c>
-      <c r="E27" t="n" s="775">
-        <v>0.7046043692742753</v>
-      </c>
-      <c r="F27" t="n" s="776">
-        <v>0.6115715180202996</v>
-      </c>
-      <c r="G27" t="n" s="777">
-        <v>3.4727272727272727</v>
-      </c>
-      <c r="H27" t="n" s="778">
-        <v>1.1840693400389193</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="767">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="772">
-        <v>55.0</v>
-      </c>
-      <c r="C28" t="n" s="773">
-        <v>0.7213422157162842</v>
-      </c>
-      <c r="D28" t="n" s="774">
-        <v>0.7326529611722828</v>
-      </c>
-      <c r="E28" t="n" s="775">
-        <v>0.717301465784909</v>
-      </c>
-      <c r="F28" t="n" s="776">
-        <v>0.6097069712880313</v>
-      </c>
-      <c r="G28" t="n" s="777">
-        <v>3.963636363636364</v>
-      </c>
-      <c r="H28" t="n" s="778">
-        <v>1.3738784835428814</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="767">
+      <c r="B41" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="C41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="798">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="E41" t="n" s="799">
+        <v>0.2545454545454545</v>
+      </c>
+      <c r="F41" t="n" s="800">
+        <v>0.23636363636363636</v>
+      </c>
+      <c r="G41" t="n" s="801">
+        <v>0.43636363636363634</v>
+      </c>
+      <c r="H41" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="791">
+        <v>26</v>
+      </c>
+      <c r="B42" t="n" s="796">
+        <v>0.43636363636363634</v>
+      </c>
+      <c r="C42" t="n" s="797">
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="D42" t="n" s="798">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="E42" t="n" s="799">
+        <v>0.2</v>
+      </c>
+      <c r="F42" t="n" s="800">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="G42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="791">
+        <v>27</v>
+      </c>
+      <c r="B43" t="n" s="796">
+        <v>0.2</v>
+      </c>
+      <c r="C43" t="n" s="797">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="D43" t="n" s="798">
+        <v>0.07272727272727272</v>
+      </c>
+      <c r="E43" t="n" s="799">
+        <v>0.4727272727272727</v>
+      </c>
+      <c r="F43" t="n" s="800">
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="G43" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="791">
         <v>28</v>
       </c>
-      <c r="B29" t="n" s="772">
-        <v>55.0</v>
-      </c>
-      <c r="C29" t="n" s="773">
-        <v>0.6043323082322266</v>
-      </c>
-      <c r="D29" t="n" s="774">
-        <v>0.6089329658921928</v>
-      </c>
-      <c r="E29" t="n" s="775">
-        <v>0.5884961766958753</v>
-      </c>
-      <c r="F29" t="n" s="776">
-        <v>0.4696629747821582</v>
-      </c>
-      <c r="G29" t="n" s="777">
-        <v>1.8909090909090909</v>
-      </c>
-      <c r="H29" t="n" s="778">
-        <v>1.3147697625894539</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="767">
+      <c r="B44" t="n" s="796">
+        <v>0.23636363636363636</v>
+      </c>
+      <c r="C44" t="n" s="797">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="D44" t="n" s="798">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E44" t="n" s="799">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="F44" t="n" s="800">
+        <v>0.09090909090909091</v>
+      </c>
+      <c r="G44" t="n" s="801">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="n" s="802">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="791">
         <v>29</v>
       </c>
-      <c r="B30" t="n" s="772">
-        <v>55.0</v>
-      </c>
-      <c r="C30" t="n" s="773">
-        <v>0.5263078310515366</v>
-      </c>
-      <c r="D30" t="n" s="774">
-        <v>0.5305440125120663</v>
-      </c>
-      <c r="E30" t="n" s="775">
-        <v>0.49811715879541896</v>
-      </c>
-      <c r="F30" t="n" s="776">
-        <v>0.38962223881146524</v>
-      </c>
-      <c r="G30" t="n" s="777">
-        <v>1.5636363636363637</v>
-      </c>
-      <c r="H30" t="n" s="778">
-        <v>1.2135597524338357</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="767">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="772">
-        <v>55.0</v>
-      </c>
-      <c r="C31" t="n" s="773">
-        <v>0.5373574224891158</v>
-      </c>
-      <c r="D31" t="n" s="774">
-        <v>0.5259385218488293</v>
-      </c>
-      <c r="E31" t="n" s="775">
-        <v>0.5527444017369347</v>
-      </c>
-      <c r="F31" t="n" s="776">
-        <v>0.3988219797955224</v>
-      </c>
-      <c r="G31" t="n" s="777">
-        <v>0.41818181818181815</v>
-      </c>
-      <c r="H31" t="n" s="778">
-        <v>1.242621319673755</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="767">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="772">
-        <v>55.0</v>
-      </c>
-      <c r="C32" t="n" s="773">
-        <v>0.5363459893367867</v>
-      </c>
-      <c r="D32" t="n" s="774">
-        <v>0.5246680488389006</v>
-      </c>
-      <c r="E32" t="n" s="775">
-        <v>0.5513759723527581</v>
-      </c>
-      <c r="F32" t="n" s="776">
-        <v>0.3864105996126049</v>
-      </c>
-      <c r="G32" t="n" s="777">
-        <v>0.4727272727272727</v>
-      </c>
-      <c r="H32" t="n" s="778">
-        <v>1.3313115985337813</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="767">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="772">
-        <v>55.0</v>
-      </c>
-      <c r="C33" t="n" s="773">
-        <v>0.3859978777654411</v>
-      </c>
-      <c r="D33" t="n" s="774">
-        <v>0.3590399408334995</v>
-      </c>
-      <c r="E33" t="n" s="775">
-        <v>0.23902886100199128</v>
-      </c>
-      <c r="F33" t="n" s="776">
-        <v>0.1936088143727684</v>
-      </c>
-      <c r="G33" t="n" s="777">
-        <v>1.4</v>
-      </c>
-      <c r="H33" t="n" s="778">
-        <v>1.4857346355952692</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="767">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="772">
-        <v>55.0</v>
-      </c>
-      <c r="C34" t="n" s="773">
-        <v>0.5290524074131085</v>
-      </c>
-      <c r="D34" t="n" s="774">
-        <v>0.5004518274678618</v>
-      </c>
-      <c r="E34" t="n" s="775">
-        <v>0.4068608085942782</v>
-      </c>
-      <c r="F34" t="n" s="776">
-        <v>0.36905012204391313</v>
-      </c>
-      <c r="G34" t="n" s="777">
-        <v>2.309090909090909</v>
-      </c>
-      <c r="H34" t="n" s="778">
-        <v>1.3993745596691254</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="782">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38"/>
-      <c r="B38" t="s" s="796">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="796">
-        <v>38</v>
-      </c>
-      <c r="D38" t="s" s="796">
-        <v>39</v>
-      </c>
-      <c r="E38" t="s" s="796">
-        <v>40</v>
-      </c>
-      <c r="F38" t="s" s="796">
-        <v>41</v>
-      </c>
-      <c r="G38" t="s" s="796">
-        <v>42</v>
-      </c>
-      <c r="H38" t="s" s="796">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="792">
-        <v>18</v>
-      </c>
-      <c r="B39" t="n" s="797">
+      <c r="B45" t="n" s="796">
+        <v>0.2909090909090909</v>
+      </c>
+      <c r="C45" t="n" s="797">
+        <v>0.10909090909090909</v>
+      </c>
+      <c r="D45" t="n" s="798">
+        <v>0.4</v>
+      </c>
+      <c r="E45" t="n" s="799">
+        <v>0.14545454545454545</v>
+      </c>
+      <c r="F45" t="n" s="800">
+        <v>0.05454545454545454</v>
+      </c>
+      <c r="G45" t="n" s="801">
         <v>0.0</v>
       </c>
-      <c r="C39" t="n" s="798">
-        <v>0.12727272727272726</v>
-      </c>
-      <c r="D39" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="800">
-        <v>0.3090909090909091</v>
-      </c>
-      <c r="F39" t="n" s="801">
-        <v>0.4727272727272727</v>
-      </c>
-      <c r="G39" t="n" s="802">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="H39" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="792">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="C40" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="799">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="E40" t="n" s="800">
-        <v>0.2545454545454545</v>
-      </c>
-      <c r="F40" t="n" s="801">
-        <v>0.23636363636363636</v>
-      </c>
-      <c r="G40" t="n" s="802">
-        <v>0.43636363636363634</v>
-      </c>
-      <c r="H40" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="792">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="797">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="C41" t="n" s="798">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D41" t="n" s="799">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="E41" t="n" s="800">
-        <v>0.2</v>
-      </c>
-      <c r="F41" t="n" s="801">
-        <v>0.509090909090909</v>
-      </c>
-      <c r="G41" t="n" s="802">
-        <v>0.12727272727272726</v>
-      </c>
-      <c r="H41" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="792">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="797">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="C42" t="n" s="798">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="D42" t="n" s="799">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="E42" t="n" s="800">
-        <v>0.21818181818181817</v>
-      </c>
-      <c r="F42" t="n" s="801">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="G42" t="n" s="802">
-        <v>0.5636363636363636</v>
-      </c>
-      <c r="H42" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="792">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="797">
-        <v>0.23636363636363636</v>
-      </c>
-      <c r="C43" t="n" s="798">
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="D43" t="n" s="799">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="E43" t="n" s="800">
-        <v>0.2909090909090909</v>
-      </c>
-      <c r="F43" t="n" s="801">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="G43" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="792">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="797">
-        <v>0.2909090909090909</v>
-      </c>
-      <c r="C44" t="n" s="798">
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="D44" t="n" s="799">
-        <v>0.4</v>
-      </c>
-      <c r="E44" t="n" s="800">
-        <v>0.14545454545454545</v>
-      </c>
-      <c r="F44" t="n" s="801">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="G44" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="792">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="797">
-        <v>0.8727272727272727</v>
-      </c>
-      <c r="C45" t="n" s="798">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="D45" t="n" s="799">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="800">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="F45" t="n" s="801">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="G45" t="n" s="802">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="H45" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="792">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="797">
-        <v>0.8727272727272727</v>
-      </c>
-      <c r="C46" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="799">
-        <v>0.03636363636363636</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.01818181818181818</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.05454545454545454</v>
-      </c>
-      <c r="H46" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="792">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="797">
-        <v>0.43636363636363634</v>
-      </c>
-      <c r="C47" t="n" s="798">
-        <v>0.14545454545454545</v>
-      </c>
-      <c r="D47" t="n" s="799">
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="E47" t="n" s="800">
-        <v>0.2</v>
-      </c>
-      <c r="F47" t="n" s="801">
-        <v>0.10909090909090909</v>
-      </c>
-      <c r="G47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="803">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="792">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="797">
-        <v>0.2</v>
-      </c>
-      <c r="C48" t="n" s="798">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="D48" t="n" s="799">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="E48" t="n" s="800">
-        <v>0.4727272727272727</v>
-      </c>
-      <c r="F48" t="n" s="801">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="G48" t="n" s="802">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="803">
+      <c r="H45" t="n" s="802">
         <v>0.0</v>
       </c>
     </row>
